--- a/Conversions list.xlsx
+++ b/Conversions list.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\unitconverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF37D640-E158-437D-A033-91B1D8F666BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AF98BA-AE48-46DF-A5BE-E2D00CA4EDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{CEC9291C-3478-41F0-824F-35E714C91A31}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CEC9291C-3478-41F0-824F-35E714C91A31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="75">
   <si>
     <t>Cooking_N_Food_Measurements</t>
   </si>
@@ -142,6 +143,123 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>pages names</t>
+  </si>
+  <si>
+    <t>Acceleration.php</t>
+  </si>
+  <si>
+    <t>Area.php</t>
+  </si>
+  <si>
+    <t>Capacitance.php</t>
+  </si>
+  <si>
+    <t>concentration_molar.php</t>
+  </si>
+  <si>
+    <t>Cooking-and-Food-Measurements-Weight-Mass.php</t>
+  </si>
+  <si>
+    <t>Data-Rate.php</t>
+  </si>
+  <si>
+    <t>Data_Storage.php</t>
+  </si>
+  <si>
+    <t>Digital_Image_Resolution.php</t>
+  </si>
+  <si>
+    <t>Electric-Potential.php</t>
+  </si>
+  <si>
+    <t>Electric-Resistance.php</t>
+  </si>
+  <si>
+    <t>Electric_Current.php</t>
+  </si>
+  <si>
+    <t>Fluids-Concentration_Solution.php</t>
+  </si>
+  <si>
+    <t>Fluids-Converters-Flow.php</t>
+  </si>
+  <si>
+    <t>Fluids-Converters-Molar.fixed.php</t>
+  </si>
+  <si>
+    <t>Fluids_flow_mass.php</t>
+  </si>
+  <si>
+    <t>Force.php</t>
+  </si>
+  <si>
+    <t>Illuminance.php</t>
+  </si>
+  <si>
+    <t>Inductance.php</t>
+  </si>
+  <si>
+    <t>Length_conversions.php</t>
+  </si>
+  <si>
+    <t>Mass-Flux-Density.php</t>
+  </si>
+  <si>
+    <t>Power-Electrical.php</t>
+  </si>
+  <si>
+    <t>Pressure.php</t>
+  </si>
+  <si>
+    <t>surface-tension.php</t>
+  </si>
+  <si>
+    <t>Temperature.php</t>
+  </si>
+  <si>
+    <t>Templates</t>
+  </si>
+  <si>
+    <t>Time.php</t>
+  </si>
+  <si>
+    <t>Torque.php</t>
+  </si>
+  <si>
+    <t>Viscosity_density.php</t>
+  </si>
+  <si>
+    <t>Volume.php</t>
+  </si>
+  <si>
+    <t>Wavelength.php</t>
+  </si>
+  <si>
+    <t>Weight-and-Mass.php</t>
+  </si>
+  <si>
+    <t>Digital_and_Computing</t>
+  </si>
+  <si>
+    <t>Electrical_and_Electronics_Conversions</t>
+  </si>
+  <si>
+    <t>Engineering_and_Technical _Conversions</t>
+  </si>
+  <si>
+    <t>Fluids_Converters_concentration_molar</t>
+  </si>
+  <si>
+    <t>Fluids_Converters</t>
+  </si>
+  <si>
+    <t>Main Header</t>
+  </si>
+  <si>
+    <t>pages</t>
   </si>
 </sst>
 </file>
@@ -516,272 +634,822 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19747C83-ED2C-4FB1-996B-7F838A6073B5}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.33203125" customWidth="1"/>
     <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C32">
+    <sortCondition ref="A1:A32"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58872EF3-4163-40FE-9738-1914B98705BB}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>32</v>
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>33</v>
+      <c r="B2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>33</v>
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>33</v>
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>33</v>
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>33</v>
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>33</v>
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>33</v>
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>33</v>
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>33</v>
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>35</v>
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>35</v>
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>33</v>
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>33</v>
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>33</v>
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>33</v>
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>33</v>
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>33</v>
+      <c r="B28" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>33</v>
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>34</v>
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>33</v>
+      <c r="B31" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
